--- a/Data_Hands-on/data_dict.xlsx
+++ b/Data_Hands-on/data_dict.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Villano\Downloads\Sharing Session\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Villano\Desktop\Junjun\Work\ANN\ANN\Data_Hands-on\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8817C528-8180-4C9A-A712-089FD5E5107B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA1746C-935F-42F3-902B-EB3ADC924541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEB6EBED-8926-4FFF-BFC4-DA7C74A0A27A}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{AEB6EBED-8926-4FFF-BFC4-DA7C74A0A27A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>loan_amnt</t>
   </si>
   <si>
-    <t>loan_status</t>
-  </si>
-  <si>
     <t>mths_since_last_delinq</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>The listed amount of the loan applied for by the borrower. If at some point in time, the credit department reduces the loan amount, then it will be reflected in this value.</t>
   </si>
   <si>
-    <t>Current status of the loan</t>
-  </si>
-  <si>
     <t>The number of months since the borrower's last delinquency.</t>
   </si>
   <si>
@@ -157,6 +151,12 @@
   </si>
   <si>
     <t>Late fees received to date</t>
+  </si>
+  <si>
+    <t>good_loan</t>
+  </si>
+  <si>
+    <t>1 - if Fully Paid ("good" loan); 0 - if Default/Charged Off ("bad" loan)</t>
   </si>
 </sst>
 </file>
@@ -235,12 +235,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,7 +559,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -584,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -594,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -604,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -614,7 +615,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -624,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -634,7 +635,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -644,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -654,7 +655,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -664,7 +665,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -674,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -684,7 +685,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -694,7 +695,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -704,7 +705,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -714,14 +715,14 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>35</v>
@@ -731,10 +732,10 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -744,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -754,7 +755,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -764,20 +765,18 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="15">
-      <c r="A21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
